--- a/Documentação/Fatores-de-risco-PI.xlsx
+++ b/Documentação/Fatores-de-risco-PI.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ricardo Malan\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Priscila Matos\Desktop\smart-park\Documentação\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E15B448D-3F1B-43D1-AFD2-F1469E03B72C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{570D4C33-F1F3-4A9A-9655-575AA103A00F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{597A1DEC-DAA0-4CE9-94B9-D9B3316A15FB}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="43">
   <si>
     <t>RISCO</t>
   </si>
@@ -51,9 +51,6 @@
     <t>PRAZO</t>
   </si>
   <si>
-    <t>ANALISE DE RISCO DO PROJETO</t>
-  </si>
-  <si>
     <t>Falta de conhecimento dos integrantes</t>
   </si>
   <si>
@@ -93,9 +90,6 @@
     <t>CODIGO</t>
   </si>
   <si>
-    <t>PROJETO: SMART PARKING</t>
-  </si>
-  <si>
     <t>Mitigar</t>
   </si>
   <si>
@@ -142,31 +136,39 @@
   </si>
   <si>
     <t>5 dias</t>
+  </si>
+  <si>
+    <t>Coluna1</t>
+  </si>
+  <si>
+    <t>Coluna2</t>
+  </si>
+  <si>
+    <t>Coluna3</t>
+  </si>
+  <si>
+    <t>Coluna4</t>
+  </si>
+  <si>
+    <t>Coluna5</t>
+  </si>
+  <si>
+    <t>Coluna6</t>
+  </si>
+  <si>
+    <t>Coluna7</t>
+  </si>
+  <si>
+    <t>Coluna8</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -179,8 +181,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -207,12 +217,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -236,6 +252,114 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -243,19 +367,36 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color theme="4" tint="0.39997558519241921"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
       </bottom>
       <diagonal/>
     </border>
@@ -265,30 +406,10 @@
         <color indexed="64"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color theme="4" tint="0.39997558519241921"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
+        <color theme="4" tint="0.39997558519241921"/>
       </bottom>
       <diagonal/>
     </border>
@@ -299,20 +420,11 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color theme="4" tint="0.39997558519241921"/>
       </bottom>
       <diagonal/>
     </border>
@@ -320,64 +432,359 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="12">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -388,6 +795,23 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FFA9686B-147B-4BAD-B580-76FCD9DE7CE2}" name="Tabela1" displayName="Tabela1" ref="A3:H12" totalsRowShown="0" headerRowDxfId="11" dataDxfId="9" headerRowBorderDxfId="10" tableBorderDxfId="8">
+  <autoFilter ref="A3:H12" xr:uid="{FDC0452D-79EE-49CB-A481-7636DDEC7E2C}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{8BC10EA3-4F6C-4B7E-A5D6-10E43F626F41}" name="Coluna1" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{DBA252C8-B474-4A22-B055-9E02EEC794F3}" name="Coluna2" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{2EE31822-F34B-48F8-9EFC-07C8FAFC5335}" name="Coluna3" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{B8F5DDA0-7AFF-4ABF-AC48-5D2BBA5E7A6A}" name="Coluna4" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{32089697-E179-402B-8773-0709E88F3FE0}" name="Coluna5" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{816BD219-3C84-4C99-BC0B-3759AFD592DD}" name="Coluna6" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{E10E4364-1551-49E0-B779-75BFB6880D1D}" name="Coluna7" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{98CA7FFC-71AC-44EA-988F-952F88FB8970}" name="Coluna8" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -687,357 +1111,349 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67AC5E30-4A4F-483F-96F3-507E63F2D1A2}">
-  <dimension ref="A3:H23"/>
+  <dimension ref="A2:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" style="1"/>
-    <col min="2" max="2" width="36.7109375" style="1" customWidth="1"/>
-    <col min="3" max="6" width="20.7109375" style="1"/>
+    <col min="1" max="1" width="15" style="1" customWidth="1"/>
+    <col min="2" max="2" width="33.5703125" style="1" customWidth="1"/>
+    <col min="3" max="4" width="20.7109375" style="1"/>
+    <col min="5" max="5" width="20" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" style="1" customWidth="1"/>
     <col min="7" max="7" width="37.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="20.7109375" style="1"/>
+    <col min="8" max="8" width="18.7109375" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="20.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:8" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="18"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="20"/>
+    </row>
+    <row r="5" spans="1:8" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" s="30" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
+        <v>1</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="9">
+        <v>3</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="23">
+        <v>2</v>
+      </c>
+      <c r="B7" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="27">
+        <v>2</v>
+      </c>
+      <c r="F7" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" s="24"/>
+    </row>
+    <row r="8" spans="1:8" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <v>3</v>
+      </c>
+      <c r="B8" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="17"/>
-    </row>
-    <row r="4" spans="1:8" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="17"/>
-    </row>
-    <row r="6" spans="1:8" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="C8" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="9">
+        <v>4</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="4" t="s">
+      <c r="G8" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="23">
+        <v>4</v>
+      </c>
+      <c r="B9" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="26">
+        <v>4</v>
+      </c>
+      <c r="F9" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="H9" s="24" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
+        <v>5</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="9">
+        <v>2</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="23">
+        <v>6</v>
+      </c>
+      <c r="B11" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="26">
+        <v>4</v>
+      </c>
+      <c r="F11" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" s="24" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="7">
+        <v>7</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="17">
+        <v>6</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="H12" s="22" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="10"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="13">
+        <v>3</v>
+      </c>
+      <c r="C15" s="14">
+        <v>6</v>
+      </c>
+      <c r="D15" s="14">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="15">
+        <v>2</v>
+      </c>
+      <c r="C16" s="13">
+        <v>4</v>
+      </c>
+      <c r="D16" s="14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="15">
         <v>1</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="C17" s="15">
         <v>2</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="4" t="s">
+      <c r="D17" s="13">
         <v>3</v>
       </c>
-      <c r="G6" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
+    </row>
+    <row r="18" spans="1:4" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="6"/>
+      <c r="B18" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C19" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="12">
-        <v>3</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
-        <v>2</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="14">
-        <v>2</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="H8" s="7"/>
-    </row>
-    <row r="9" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
-        <v>3</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="12">
-        <v>4</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
-        <v>4</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="12">
-        <v>4</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="6">
-        <v>5</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" s="14">
-        <v>2</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="6">
-        <v>6</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" s="12">
-        <v>4</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="6">
-        <v>7</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="13">
-        <v>6</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="6">
-        <v>8</v>
-      </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="7"/>
-    </row>
-    <row r="15" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="6">
-        <v>9</v>
-      </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="7"/>
-    </row>
-    <row r="16" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="8">
-        <v>10</v>
-      </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="9"/>
-    </row>
-    <row r="18" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="10" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B19" s="12">
-        <v>3</v>
-      </c>
-      <c r="C19" s="13">
-        <v>6</v>
-      </c>
-      <c r="D19" s="13">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B20" s="14">
-        <v>2</v>
-      </c>
-      <c r="C20" s="12">
-        <v>4</v>
-      </c>
-      <c r="D20" s="13">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B21" s="14">
-        <v>1</v>
-      </c>
-      <c r="C21" s="14">
-        <v>2</v>
-      </c>
-      <c r="D21" s="12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="11"/>
-      <c r="B22" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C23" s="10" t="s">
-        <v>1</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A4:H4"/>
-  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>